--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -2088,7 +2088,7 @@
         <v>166</v>
       </c>
       <c r="C6">
-        <v>60000274</v>
+        <v>60000349</v>
       </c>
       <c r="E6" t="s">
         <v>170</v>
@@ -2123,7 +2123,7 @@
         <v>166</v>
       </c>
       <c r="C7">
-        <v>60000274</v>
+        <v>60000349</v>
       </c>
       <c r="E7" t="s">
         <v>171</v>
@@ -2164,7 +2164,7 @@
         <v>60000000</v>
       </c>
       <c r="D8">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
         <v>170</v>
@@ -2202,7 +2202,7 @@
         <v>60000000</v>
       </c>
       <c r="D9">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
         <v>171</v>
@@ -2240,7 +2240,7 @@
         <v>166</v>
       </c>
       <c r="C10">
-        <v>60000274</v>
+        <v>60000349</v>
       </c>
       <c r="E10" t="s">
         <v>171</v>
@@ -2275,7 +2275,7 @@
         <v>60000000</v>
       </c>
       <c r="D11">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
         <v>170</v>
@@ -2304,7 +2304,7 @@
         <v>60000000</v>
       </c>
       <c r="D12">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
         <v>171</v>
@@ -2336,7 +2336,7 @@
         <v>60000000</v>
       </c>
       <c r="D13">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>170</v>
@@ -2371,7 +2371,7 @@
         <v>60000000</v>
       </c>
       <c r="D14">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
         <v>171</v>
@@ -2406,7 +2406,7 @@
         <v>166</v>
       </c>
       <c r="C15">
-        <v>60000275</v>
+        <v>60000350</v>
       </c>
       <c r="E15" t="s">
         <v>171</v>
@@ -2438,7 +2438,7 @@
         <v>60000000</v>
       </c>
       <c r="D16">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
         <v>171</v>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>Overview</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>*Company Code (4)</t>
@@ -1975,109 +1978,109 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N5" t="s">
         <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2085,34 +2088,34 @@
         <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>60000349</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N6" t="s">
         <v>162</v>
       </c>
       <c r="Q6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2120,19 +2123,19 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>60000349</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N7" t="s">
         <v>143</v>
@@ -2141,16 +2144,16 @@
         <v>141</v>
       </c>
       <c r="Q7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2158,7 +2161,7 @@
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8">
         <v>60000000</v>
@@ -2167,28 +2170,28 @@
         <v>259</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N8" t="s">
         <v>163</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2196,7 +2199,7 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>60000000</v>
@@ -2205,13 +2208,13 @@
         <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
         <v>164</v>
@@ -2220,16 +2223,16 @@
         <v>162</v>
       </c>
       <c r="Q9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2237,31 +2240,31 @@
         <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>60000349</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
         <v>143</v>
       </c>
       <c r="Q10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U10" t="s">
         <v>147</v>
       </c>
       <c r="W10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2269,7 +2272,7 @@
         <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11">
         <v>60000000</v>
@@ -2278,19 +2281,19 @@
         <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
         <v>147</v>
       </c>
       <c r="W11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -2298,7 +2301,7 @@
         <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12">
         <v>60000000</v>
@@ -2307,13 +2310,13 @@
         <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T12" t="s">
         <v>147</v>
@@ -2322,7 +2325,7 @@
         <v>147</v>
       </c>
       <c r="W12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -2330,7 +2333,7 @@
         <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13">
         <v>60000000</v>
@@ -2339,25 +2342,25 @@
         <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T13" t="s">
         <v>147</v>
       </c>
       <c r="W13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -2365,7 +2368,7 @@
         <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14">
         <v>60000000</v>
@@ -2374,19 +2377,19 @@
         <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T14" t="s">
         <v>147</v>
@@ -2395,44 +2398,44 @@
         <v>147</v>
       </c>
       <c r="W14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15">
         <v>60000350</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16">
         <v>60000000</v>
@@ -2441,22 +2444,22 @@
         <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="209">
   <si>
     <t>Overview</t>
   </si>
@@ -2091,7 +2091,7 @@
         <v>167</v>
       </c>
       <c r="C6">
-        <v>60000349</v>
+        <v>60000393</v>
       </c>
       <c r="E6" t="s">
         <v>171</v>
@@ -2126,7 +2126,7 @@
         <v>167</v>
       </c>
       <c r="C7">
-        <v>60000349</v>
+        <v>60000393</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -2167,7 +2167,7 @@
         <v>60000000</v>
       </c>
       <c r="D8">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>171</v>
@@ -2205,7 +2205,7 @@
         <v>60000000</v>
       </c>
       <c r="D9">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
         <v>172</v>
@@ -2243,7 +2243,7 @@
         <v>167</v>
       </c>
       <c r="C10">
-        <v>60000349</v>
+        <v>60000393</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2278,7 +2278,7 @@
         <v>60000000</v>
       </c>
       <c r="D11">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
         <v>171</v>
@@ -2307,7 +2307,7 @@
         <v>60000000</v>
       </c>
       <c r="D12">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
         <v>172</v>
@@ -2339,7 +2339,7 @@
         <v>60000000</v>
       </c>
       <c r="D13">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -2374,7 +2374,7 @@
         <v>60000000</v>
       </c>
       <c r="D14">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -2409,7 +2409,7 @@
         <v>167</v>
       </c>
       <c r="C15">
-        <v>60000350</v>
+        <v>60000394</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -2425,6 +2425,9 @@
       </c>
       <c r="K15" t="s">
         <v>180</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
       </c>
       <c r="W15" t="s">
         <v>180</v>
@@ -2441,10 +2444,10 @@
         <v>60000000</v>
       </c>
       <c r="D16">
-        <v>260</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
+        <v>281</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
       </c>
       <c r="G16" t="s">
         <v>175</v>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="210">
   <si>
     <t>Overview</t>
   </si>
@@ -339,10 +339,10 @@
     <t>Document Type</t>
   </si>
   <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Fiscal period</t>
@@ -378,7 +378,7 @@
     <t>Base depreciation area for determining net book value</t>
   </si>
   <si>
-    <t>Asset Value Date</t>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Company ID of Trading Partner</t>
@@ -555,13 +555,13 @@
     <t>Document Type (2)</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>2022-01-05</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Fiscal period (2)</t>
@@ -570,6 +570,9 @@
     <t>Indicator: Post complete retirement (1)</t>
   </si>
   <si>
+    <t>Amount posted (23)</t>
+  </si>
+  <si>
     <t>Revenue from asset sale (23)</t>
   </si>
   <si>
@@ -597,7 +600,7 @@
     <t>Base depreciation area for determining net book value (2)</t>
   </si>
   <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Company ID of Trading Partner (6)</t>
@@ -1287,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,29 +1313,46 @@
         <v>140</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>135</v>
@@ -1341,119 +1361,119 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
         <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
@@ -1467,58 +1487,55 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
         <v>148</v>
@@ -1526,10 +1543,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
@@ -1540,298 +1557,284 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
         <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
         <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2014,73 +2017,73 @@
         <v>183</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2091,7 +2094,7 @@
         <v>167</v>
       </c>
       <c r="C6">
-        <v>60000393</v>
+        <v>60000411</v>
       </c>
       <c r="E6" t="s">
         <v>171</v>
@@ -2106,16 +2109,16 @@
         <v>162</v>
       </c>
       <c r="Q6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
       </c>
       <c r="AI6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2126,7 +2129,7 @@
         <v>167</v>
       </c>
       <c r="C7">
-        <v>60000393</v>
+        <v>60000411</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -2144,16 +2147,16 @@
         <v>141</v>
       </c>
       <c r="Q7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W7" t="s">
         <v>180</v>
       </c>
       <c r="AI7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2167,7 +2170,7 @@
         <v>60000000</v>
       </c>
       <c r="D8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
         <v>171</v>
@@ -2182,16 +2185,16 @@
         <v>163</v>
       </c>
       <c r="Q8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W8" t="s">
         <v>180</v>
       </c>
       <c r="AI8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2205,7 +2208,7 @@
         <v>60000000</v>
       </c>
       <c r="D9">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
         <v>172</v>
@@ -2223,16 +2226,16 @@
         <v>162</v>
       </c>
       <c r="Q9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W9" t="s">
         <v>180</v>
       </c>
       <c r="AI9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2243,7 +2246,7 @@
         <v>167</v>
       </c>
       <c r="C10">
-        <v>60000393</v>
+        <v>60000411</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2258,7 +2261,7 @@
         <v>143</v>
       </c>
       <c r="Q10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U10" t="s">
         <v>147</v>
@@ -2278,7 +2281,7 @@
         <v>60000000</v>
       </c>
       <c r="D11">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
         <v>171</v>
@@ -2307,7 +2310,7 @@
         <v>60000000</v>
       </c>
       <c r="D12">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
         <v>172</v>
@@ -2339,7 +2342,7 @@
         <v>60000000</v>
       </c>
       <c r="D13">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -2374,7 +2377,7 @@
         <v>60000000</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -2409,7 +2412,7 @@
         <v>167</v>
       </c>
       <c r="C15">
-        <v>60000394</v>
+        <v>60000412</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -2444,7 +2447,7 @@
         <v>60000000</v>
       </c>
       <c r="D16">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E16">
         <v>250</v>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -2094,7 +2094,7 @@
         <v>167</v>
       </c>
       <c r="C6">
-        <v>60000411</v>
+        <v>60000429</v>
       </c>
       <c r="E6" t="s">
         <v>171</v>
@@ -2129,7 +2129,7 @@
         <v>167</v>
       </c>
       <c r="C7">
-        <v>60000411</v>
+        <v>60000429</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -2170,7 +2170,7 @@
         <v>60000000</v>
       </c>
       <c r="D8">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
         <v>171</v>
@@ -2208,7 +2208,7 @@
         <v>60000000</v>
       </c>
       <c r="D9">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
         <v>172</v>
@@ -2246,7 +2246,7 @@
         <v>167</v>
       </c>
       <c r="C10">
-        <v>60000411</v>
+        <v>60000429</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2281,7 +2281,7 @@
         <v>60000000</v>
       </c>
       <c r="D11">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s">
         <v>171</v>
@@ -2310,7 +2310,7 @@
         <v>60000000</v>
       </c>
       <c r="D12">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E12" t="s">
         <v>172</v>
@@ -2342,7 +2342,7 @@
         <v>60000000</v>
       </c>
       <c r="D13">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -2377,7 +2377,7 @@
         <v>60000000</v>
       </c>
       <c r="D14">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -2412,7 +2412,7 @@
         <v>167</v>
       </c>
       <c r="C15">
-        <v>60000412</v>
+        <v>60000430</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -2447,7 +2447,7 @@
         <v>60000000</v>
       </c>
       <c r="D16">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E16">
         <v>250</v>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -2094,7 +2094,7 @@
         <v>167</v>
       </c>
       <c r="C6">
-        <v>60000429</v>
+        <v>60000479</v>
       </c>
       <c r="E6" t="s">
         <v>171</v>
@@ -2129,7 +2129,7 @@
         <v>167</v>
       </c>
       <c r="C7">
-        <v>60000429</v>
+        <v>60000479</v>
       </c>
       <c r="E7" t="s">
         <v>172</v>
@@ -2170,7 +2170,7 @@
         <v>60000000</v>
       </c>
       <c r="D8">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
         <v>171</v>
@@ -2208,7 +2208,7 @@
         <v>60000000</v>
       </c>
       <c r="D9">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
         <v>172</v>
@@ -2246,7 +2246,7 @@
         <v>167</v>
       </c>
       <c r="C10">
-        <v>60000429</v>
+        <v>60000479</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2281,7 +2281,7 @@
         <v>60000000</v>
       </c>
       <c r="D11">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E11" t="s">
         <v>171</v>
@@ -2310,7 +2310,7 @@
         <v>60000000</v>
       </c>
       <c r="D12">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
         <v>172</v>
@@ -2342,7 +2342,7 @@
         <v>60000000</v>
       </c>
       <c r="D13">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -2377,7 +2377,7 @@
         <v>60000000</v>
       </c>
       <c r="D14">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
         <v>172</v>
@@ -2412,7 +2412,7 @@
         <v>167</v>
       </c>
       <c r="C15">
-        <v>60000430</v>
+        <v>60000480</v>
       </c>
       <c r="E15" t="s">
         <v>172</v>
@@ -2447,7 +2447,7 @@
         <v>60000000</v>
       </c>
       <c r="D16">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="E16">
         <v>250</v>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="170">
   <si>
     <t>Overview</t>
   </si>
@@ -213,61 +213,52 @@
     <t>ANLN2</t>
   </si>
   <si>
+    <t>LEDGER</t>
+  </si>
+  <si>
+    <t>AFABE</t>
+  </si>
+  <si>
+    <t>BLDAT</t>
+  </si>
+  <si>
+    <t>BUDAT</t>
+  </si>
+  <si>
+    <t>BZDAT</t>
+  </si>
+  <si>
+    <t>SGTXT</t>
+  </si>
+  <si>
+    <t>BLART</t>
+  </si>
+  <si>
+    <t>MONAT</t>
+  </si>
+  <si>
     <t>BWASL</t>
   </si>
   <si>
-    <t>ACC_PRINCIPLE</t>
-  </si>
-  <si>
-    <t>AFABE</t>
-  </si>
-  <si>
-    <t>BF_TARGET_LDGRP</t>
-  </si>
-  <si>
-    <t>BLART</t>
-  </si>
-  <si>
-    <t>BLDAT</t>
-  </si>
-  <si>
-    <t>BUDAT</t>
-  </si>
-  <si>
-    <t>MONAT</t>
-  </si>
-  <si>
-    <t>BF_XVABG</t>
-  </si>
-  <si>
     <t>ANBTR</t>
   </si>
   <si>
-    <t>BF_ERLBT</t>
-  </si>
-  <si>
-    <t>BF_VERKO_D</t>
+    <t>ERLBT</t>
   </si>
   <si>
     <t>WAERS</t>
   </si>
   <si>
+    <t>AFABE_RBWE</t>
+  </si>
+  <si>
     <t>MENGE_D</t>
   </si>
   <si>
-    <t>MEINS</t>
-  </si>
-  <si>
-    <t>BF_PROZS</t>
-  </si>
-  <si>
-    <t>BF_XERBW</t>
-  </si>
-  <si>
-    <t>AFABE_RBWE</t>
-  </si>
-  <si>
-    <t>BZDAT</t>
+    <t>PROZS</t>
+  </si>
+  <si>
+    <t>XANEU</t>
   </si>
   <si>
     <t>RASSC</t>
@@ -276,36 +267,12 @@
     <t>PARGB</t>
   </si>
   <si>
-    <t>AUFNR</t>
-  </si>
-  <si>
     <t>PS_PSP_PNR</t>
   </si>
   <si>
-    <t>BP_GEBER</t>
-  </si>
-  <si>
-    <t>IMKEY</t>
-  </si>
-  <si>
-    <t>SBERI</t>
-  </si>
-  <si>
-    <t>GM_GRANT_NBR</t>
-  </si>
-  <si>
-    <t>FKBER</t>
-  </si>
-  <si>
-    <t>BKTXT</t>
-  </si>
-  <si>
     <t>XBLNR</t>
   </si>
   <si>
-    <t>SGTXT</t>
-  </si>
-  <si>
     <t>ZUONR</t>
   </si>
   <si>
@@ -324,61 +291,52 @@
     <t>Asset Subnumber</t>
   </si>
   <si>
+    <t>Ledger in General Ledger Accounting</t>
+  </si>
+  <si>
+    <t>Posting Depreciation Area</t>
+  </si>
+  <si>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Item Text</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Fiscal period</t>
+  </si>
+  <si>
     <t>Asset Transaction Type</t>
   </si>
   <si>
-    <t>Accounting Principle</t>
-  </si>
-  <si>
-    <t>Posting Depreciation Area</t>
-  </si>
-  <si>
-    <t>Target Ledger Group</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Document Date in Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Fiscal period</t>
-  </si>
-  <si>
-    <t>Indicator: Post complete retirement</t>
-  </si>
-  <si>
     <t>Amount posted</t>
   </si>
   <si>
     <t>Revenue from asset sale</t>
   </si>
   <si>
-    <t>Costs from asset retirement</t>
-  </si>
-  <si>
     <t>Currency Key</t>
   </si>
   <si>
+    <t>Base depreciation area for determining net book value</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Base Unit of Measure</t>
-  </si>
-  <si>
     <t>Asset retirement: Percentage rate</t>
   </si>
   <si>
-    <t>Indicator: Determine revenue from net book value</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value</t>
-  </si>
-  <si>
-    <t>Asset Value Date (YYYY-MM-DD)</t>
+    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition</t>
   </si>
   <si>
     <t>Company ID of Trading Partner</t>
@@ -387,36 +345,12 @@
     <t>Trading partner's business area</t>
   </si>
   <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>Work Breakdown Structure Element (WBS Element)</t>
   </si>
   <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Internal Key for Real Estate Object</t>
-  </si>
-  <si>
-    <t>Correction item number</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Functional Area</t>
-  </si>
-  <si>
-    <t>Document Header Text</t>
-  </si>
-  <si>
     <t>Reference Document Number</t>
   </si>
   <si>
-    <t>Item Text</t>
-  </si>
-  <si>
     <t>Assignment number</t>
   </si>
   <si>
@@ -429,15 +363,6 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>LENGTH</t>
   </si>
   <si>
@@ -450,42 +375,36 @@
     <t>12</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -528,16 +447,10 @@
     <t>Asset Subnumber (4)</t>
   </si>
   <si>
-    <t>*Asset Transaction Type (3)</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Accounting Principle (4)</t>
+    <t>Ledger in General Ledger Accounting (2)</t>
+  </si>
+  <si>
+    <t>2L</t>
   </si>
   <si>
     <t>Posting Depreciation Area (2)</t>
@@ -546,28 +459,31 @@
     <t>32</t>
   </si>
   <si>
-    <t>Target Ledger Group (4)</t>
-  </si>
-  <si>
-    <t>2L</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>Item Text (50)</t>
+  </si>
+  <si>
+    <t>MPA Ret. Post</t>
   </si>
   <si>
     <t>Document Type (2)</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
-  </si>
-  <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
-  </si>
-  <si>
     <t>Fiscal period (2)</t>
   </si>
   <si>
-    <t>Indicator: Post complete retirement (1)</t>
+    <t>Asset Transaction Type (3)</t>
   </si>
   <si>
     <t>Amount posted (23)</t>
@@ -576,31 +492,22 @@
     <t>Revenue from asset sale (23)</t>
   </si>
   <si>
-    <t>Costs from asset retirement (23)</t>
-  </si>
-  <si>
     <t>Currency Key (5)</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
+    <t>Base depreciation area for determining net book value (2)</t>
+  </si>
+  <si>
     <t>Quantity (13)</t>
   </si>
   <si>
-    <t>Base Unit of Measure (3)</t>
-  </si>
-  <si>
     <t>Asset retirement: Percentage rate (5)</t>
   </si>
   <si>
-    <t>Indicator: Determine revenue from net book value (1)</t>
-  </si>
-  <si>
-    <t>Base depreciation area for determining net book value (2)</t>
-  </si>
-  <si>
-    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+    <t>Indicator: Transaction Relates to Curr.-Yr Acquisition (1)</t>
   </si>
   <si>
     <t>Company ID of Trading Partner (6)</t>
@@ -609,37 +516,10 @@
     <t>Trading partner's business area (4)</t>
   </si>
   <si>
-    <t>Order Number (12)</t>
-  </si>
-  <si>
     <t>Work Breakdown Structure Element (WBS Element) (8)</t>
   </si>
   <si>
-    <t>Fund (10)</t>
-  </si>
-  <si>
-    <t>Internal Key for Real Estate Object (8)</t>
-  </si>
-  <si>
-    <t>Correction item number (10)</t>
-  </si>
-  <si>
-    <t>Grant (20)</t>
-  </si>
-  <si>
-    <t>Functional Area (16)</t>
-  </si>
-  <si>
-    <t>Document Header Text (25)</t>
-  </si>
-  <si>
     <t>Reference Document Number (16)</t>
-  </si>
-  <si>
-    <t>Item Text (50)</t>
-  </si>
-  <si>
-    <t>MPA Ret. Post</t>
   </si>
   <si>
     <t>Assignment number (18)</t>
@@ -1290,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1301,16 +1181,16 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1318,16 +1198,16 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1335,16 +1215,16 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1352,16 +1232,16 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1369,13 +1249,13 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1383,16 +1263,13 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1400,13 +1277,13 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1414,13 +1291,16 @@
         <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1428,13 +1308,16 @@
         <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1442,13 +1325,16 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1456,16 +1342,13 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1473,16 +1356,13 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1490,13 +1370,13 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1504,13 +1384,13 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1518,13 +1398,13 @@
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1532,13 +1412,13 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1546,13 +1426,13 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1560,13 +1440,13 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1574,13 +1454,13 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1588,13 +1468,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1602,13 +1482,13 @@
         <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1616,13 +1496,13 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1630,13 +1510,13 @@
         <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1644,16 +1524,13 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1661,13 +1538,13 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1675,167 +1552,13 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1845,28 +1568,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1942,229 +1665,157 @@
       <c r="Y4" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" t="s">
+      <c r="R5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" t="s">
+        <v>165</v>
+      </c>
+      <c r="W5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
+      <c r="X5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O5" t="s">
-        <v>185</v>
-      </c>
-      <c r="P5" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>187</v>
-      </c>
-      <c r="R5" t="s">
-        <v>189</v>
-      </c>
-      <c r="S5" t="s">
-        <v>190</v>
-      </c>
-      <c r="T5" t="s">
-        <v>191</v>
-      </c>
-      <c r="U5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V5" t="s">
-        <v>193</v>
-      </c>
-      <c r="W5" t="s">
-        <v>194</v>
-      </c>
-      <c r="X5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>60000479</v>
       </c>
-      <c r="E6" t="s">
-        <v>171</v>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
+        <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>188</v>
-      </c>
-      <c r="W6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>60000479</v>
       </c>
-      <c r="E7" t="s">
-        <v>172</v>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N7" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>188</v>
-      </c>
-      <c r="W7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+        <v>116</v>
+      </c>
+      <c r="P7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>60000000</v>
@@ -2172,37 +1823,34 @@
       <c r="D8">
         <v>329</v>
       </c>
-      <c r="E8" t="s">
-        <v>171</v>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K8" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>188</v>
-      </c>
-      <c r="W8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>60000000</v>
@@ -2210,72 +1858,63 @@
       <c r="D9">
         <v>329</v>
       </c>
-      <c r="E9" t="s">
-        <v>172</v>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>188</v>
-      </c>
-      <c r="W9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>60000479</v>
       </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" t="s">
-        <v>180</v>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>60000000</v>
@@ -2283,28 +1922,22 @@
       <c r="D11">
         <v>329</v>
       </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" t="s">
-        <v>147</v>
-      </c>
-      <c r="W11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>60000000</v>
@@ -2312,31 +1945,22 @@
       <c r="D12">
         <v>329</v>
       </c>
-      <c r="E12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" t="s">
-        <v>180</v>
-      </c>
-      <c r="T12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>60000000</v>
@@ -2345,33 +1969,30 @@
         <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" t="s">
-        <v>180</v>
-      </c>
-      <c r="T13" t="s">
-        <v>147</v>
-      </c>
-      <c r="W13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C14">
         <v>60000000</v>
@@ -2380,68 +2001,62 @@
         <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" t="s">
-        <v>180</v>
-      </c>
-      <c r="T14" t="s">
-        <v>147</v>
-      </c>
-      <c r="U14" t="s">
-        <v>147</v>
-      </c>
-      <c r="W14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>60000480</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
-      <c r="W15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C16">
         <v>60000000</v>
@@ -2449,23 +2064,23 @@
       <c r="D16">
         <v>330</v>
       </c>
-      <c r="E16">
-        <v>250</v>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" t="s">
-        <v>180</v>
-      </c>
-      <c r="W16" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="S16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/04_retirement_upload.xlsx
+++ b/04_retirement_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="172">
   <si>
     <t>Overview</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Asset Transaction Type (3)</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>260</t>
   </si>
   <si>
     <t>Amount posted (23)</t>
@@ -1707,40 +1713,40 @@
         <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1765,14 +1771,17 @@
       <c r="J6" t="s">
         <v>152</v>
       </c>
+      <c r="M6" t="s">
+        <v>156</v>
+      </c>
       <c r="N6" t="s">
         <v>116</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1797,6 +1806,9 @@
       <c r="J7" t="s">
         <v>152</v>
       </c>
+      <c r="M7" t="s">
+        <v>157</v>
+      </c>
       <c r="N7" t="s">
         <v>116</v>
       </c>
@@ -1804,10 +1816,10 @@
         <v>116</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1835,14 +1847,17 @@
       <c r="J8" t="s">
         <v>152</v>
       </c>
+      <c r="M8" t="s">
+        <v>156</v>
+      </c>
       <c r="N8" t="s">
         <v>116</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1870,6 +1885,9 @@
       <c r="J9" t="s">
         <v>152</v>
       </c>
+      <c r="M9" t="s">
+        <v>157</v>
+      </c>
       <c r="N9" t="s">
         <v>116</v>
       </c>
@@ -1877,10 +1895,10 @@
         <v>116</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1902,11 +1920,14 @@
       <c r="I10" t="s">
         <v>148</v>
       </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
       <c r="N10" t="s">
         <v>116</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1931,6 +1952,9 @@
       <c r="I11" t="s">
         <v>148</v>
       </c>
+      <c r="M11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
@@ -1954,6 +1978,9 @@
       <c r="I12" t="s">
         <v>148</v>
       </c>
+      <c r="M12" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
@@ -1983,6 +2010,9 @@
       <c r="I13" t="s">
         <v>148</v>
       </c>
+      <c r="M13" t="s">
+        <v>156</v>
+      </c>
       <c r="S13" t="s">
         <v>126</v>
       </c>
@@ -2015,6 +2045,9 @@
       <c r="I14" t="s">
         <v>148</v>
       </c>
+      <c r="M14" t="s">
+        <v>157</v>
+      </c>
       <c r="S14" t="s">
         <v>126</v>
       </c>
@@ -2044,6 +2077,9 @@
       <c r="I15" t="s">
         <v>148</v>
       </c>
+      <c r="M15" t="s">
+        <v>157</v>
+      </c>
       <c r="O15">
         <v>10</v>
       </c>
@@ -2078,6 +2114,9 @@
       </c>
       <c r="I16" t="s">
         <v>148</v>
+      </c>
+      <c r="M16">
+        <v>250</v>
       </c>
       <c r="S16" t="s">
         <v>126</v>
